--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-5880FLV.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-5880FLV.xlsx
@@ -49,7 +49,7 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>01-01-1970</t>
+    <t>13-09-2017</t>
   </si>
 </sst>
 </file>
